--- a/成绩单定义/工程热力学_2013.xlsx
+++ b/成绩单定义/工程热力学_2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gqgua\Documents\Git\EnergyChE\成绩单定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD22C05-D1FE-4EBA-B3FB-99107DFEF61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A419EF-75B3-4FEC-893D-B6D62588529D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="21614" windowHeight="15196" xr2:uid="{731E7D1F-7414-4B37-AC23-00B63F637C1A}"/>
+    <workbookView xWindow="885" yWindow="-98" windowWidth="21712" windowHeight="15196" xr2:uid="{731E7D1F-7414-4B37-AC23-00B63F637C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -990,7 +990,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
